--- a/data/quiz180523.xlsx
+++ b/data/quiz180523.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coop2711/Google 드라이브/Works/Class/Statistics/R.WD/Class_data/class201801/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coop2711/Google 드라이브/Works/Class/Statistics/R.WD/Class_data/class201802/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062DD6C9-14DF-EB45-B649-B10943EF1999}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD23E73-C987-D441-B4B1-B2B0908DA78B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54620" yWindow="3420" windowWidth="36060" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="7660" windowWidth="36060" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -2919,7 +2919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O182"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
